--- a/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_test.xlsx
+++ b/F_dataset/DUD-E/AKT1/AKT1_preprocessing/AKT1_test.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL470202</t>
+          <t>CHEMBL605733</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1cc(-c2cn[nH]c2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3cc(Cl)ccc3O)cc12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NCC(NC(=O)c1cc(-c2cn[nH]c2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3cc(Cl)ccc3O)cc12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>428.52</v>
+        <v>484.99</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>112.48</v>
+        <v>97.05</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F8B0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL607374</t>
+          <t>CHEMBL470202</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,44 +624,44 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cc(F)ccc45)cnc3-c3ccoc3)cc12</t>
+          <t>NCC(NC(=O)c1cc(-c2cn[nH]c2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cc(F)ccc45)cnc3-c3ccoc3)cc12</t>
+          <t>NCC(NC(=O)c1cc(-c2cn[nH]c2)c(-c2ccnc3[nH]ccc23)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>481.53</v>
+        <v>428.52</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>105.75</v>
+        <v>112.48</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D5B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895FAE0&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL603197</t>
+          <t>CHEMBL607374</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cc(F)ccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cc(F)ccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>465.52</v>
+        <v>481.53</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -729,7 +729,7 @@
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>131.53</v>
+        <v>105.75</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F4C0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL572907</t>
+          <t>CHEMBL596072</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(C4CC4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1n[nH]c2ncc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(C4CC4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1n[nH]c2ncc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>423.52</v>
+        <v>464.53</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -794,10 +794,10 @@
         <v>6</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>92.61</v>
+        <v>118.64</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D2A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F7D0&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL446966</t>
+          <t>CHEMBL603197</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
+          <t>Cc1n[nH]c2cnc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ccccc45)cnc3-c3ccoc3)nc12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>569.67</v>
+        <v>465.52</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>7</v>
@@ -859,13 +859,13 @@
         <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>112.68</v>
+        <v>131.53</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895E340&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL574269</t>
+          <t>CHEMBL572907</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(C2CC2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(C4CC4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(C2CC2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(C4CC4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>438.53</v>
+        <v>423.52</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
@@ -930,10 +930,10 @@
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>93.03</v>
+        <v>92.61</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F5A0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL259753</t>
+          <t>CHEMBL446966</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>COc1ccc(-c2nnc(C3CCN(Cc4ccc(-c5nc6cc[nH]c(=O)c6cc5-c5ccccc5)cc4)CC3)[nH]2)cn1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,16 +983,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>523.64</v>
+        <v>569.67</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>7</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="M8" t="n">
-        <v>83.48</v>
+        <v>112.68</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3CCF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F140&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL576372</t>
+          <t>CHEMBL574269</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(C2CC2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4cccc(OCC5CCNCC5)c4)c3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(C2CC2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>472.59</v>
+        <v>438.53</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
         <v>7</v>
       </c>
-      <c r="J9" t="n">
-        <v>9</v>
-      </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>110.97</v>
+        <v>93.03</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F3E0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL447114</t>
+          <t>CHEMBL209503</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6ncccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>Oc1nc2ccc(N[C@H](COc3cncc(-c4ccc5nc(O)sc5c4)c3)Cc3c[nH]c4ccccc34)cc2s1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6ncccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
+          <t>Oc1nc2ccc(N[C@H](COc3cncc(-c4ccc5nc(O)sc5c4)c3)Cc3c[nH]c4ccccc34)cc2s1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,25 +1119,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>540.63</v>
+        <v>565.6799999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>116.34</v>
+        <v>116.18</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895FCA0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL522857</t>
+          <t>CHEMBL259753</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
+          <t>c1ccc(-c2cc3ncccc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,25 +1187,25 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>411.47</v>
+        <v>523.64</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
-        <v>137.14</v>
+        <v>83.48</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3DBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F610&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL494088</t>
+          <t>CHEMBL447114</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6ncccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OCC3CCNC3)c21</t>
+          <t>O=c1[nH]ccc2nc(-c3ccc(CN4CCC(c5nnc(-c6ncccn6)[nH]5)CC4)cc3)c(-c3ccccc3)cc12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,25 +1255,25 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>411.47</v>
+        <v>540.63</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>137.14</v>
+        <v>116.34</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895EF10&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL574995</t>
+          <t>CHEMBL522857</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4nccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4nccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>466.57</v>
+        <v>411.47</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>105.5</v>
+        <v>137.14</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F920&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL605838</t>
+          <t>CHEMBL1081829</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cccnc45)cnc3-c3ccoc3)cc12</t>
+          <t>N[C@H](CNc1ncc(-c2ccc3[nH]ncc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cccnc45)cnc3-c3ccoc3)cc12</t>
+          <t>N[C@H](CNc1ncc(-c2ccc3[nH]ncc3c2)s1)Cc1ccc(C(F)(F)F)cc1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,25 +1391,25 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>464.53</v>
+        <v>417.46</v>
       </c>
       <c r="H14" t="n">
         <v>3</v>
       </c>
       <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
         <v>6</v>
       </c>
-      <c r="J14" t="n">
-        <v>7</v>
-      </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>118.64</v>
+        <v>79.62</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895F450&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL226744</t>
+          <t>CHEMBL605838</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5c(c4)OC(F)(F)C(F)(F)O5)c3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cccnc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4ccc5c(c4)OC(F)(F)C(F)(F)O5)c3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5cccnc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>488.44</v>
+        <v>464.53</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
       </c>
       <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
         <v>6</v>
       </c>
-      <c r="K15" t="n">
-        <v>5</v>
-      </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M15" t="n">
-        <v>95.28</v>
+        <v>118.64</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3EE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849895FB50&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL594749</t>
+          <t>CHEMBL259968</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccc[nH]3)cc12</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccc[nH]3)cc12</t>
+          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>423.52</v>
+        <v>523.64</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
+        <v>6</v>
+      </c>
+      <c r="K16" t="n">
         <v>7</v>
       </c>
-      <c r="K16" t="n">
-        <v>5</v>
-      </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M16" t="n">
-        <v>92.61</v>
+        <v>83.48</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D9A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1770&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL259968</t>
+          <t>CHEMBL523057</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(-c3cc[nH]c3)ncc(OCCCN)c21</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3ccncc3nc2-c2ccc(CN3CCC(c4n[nH]c(-c5ccccn5)n4)CC3)cc2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(-c3cc[nH]c3)ncc(OCCCN)c21</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,25 +1595,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>523.64</v>
+        <v>368.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>83.48</v>
+        <v>146.69</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3C890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0190&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL523057</t>
+          <t>CHEMBL258844</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(-c3cc[nH]c3)ncc(OCCCN)c21</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc5nc[nH]c5cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(-c3cc[nH]c3)ncc(OCCCN)c21</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc5nc[nH]c5cc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>368.4</v>
+        <v>551.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5</v>
+      </c>
+      <c r="K18" t="n">
         <v>8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>7</v>
       </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
       <c r="M18" t="n">
-        <v>146.69</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3C3C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C02E0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL604060</t>
+          <t>CHEMBL403354</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccsc3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4cccnc4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccsc3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4cccnc4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,16 +1731,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>440.57</v>
+        <v>463.61</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
         <v>5</v>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>76.81999999999999</v>
+        <v>63.59</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3CC10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C06D0&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL271091</t>
+          <t>CHEMBL389468</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(-c5ccccc5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-c5nn[nH]n5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(-c5ccccc5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1799,25 +1799,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>579.67</v>
+        <v>434.54</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
       </c>
       <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
         <v>7</v>
       </c>
-      <c r="J20" t="n">
-        <v>6</v>
-      </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>121.27</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1230&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL574476</t>
+          <t>CHEMBL573096</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-n5cnnn5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2c[nH]c4ccccc24)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4ccc(-n5cnnn5)cc4nc3-c3ccccc3)cc2)CC1</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2c[nH]c4ccccc24)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,25 +1867,25 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>579.67</v>
+        <v>513.6</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
+        <v>4</v>
+      </c>
+      <c r="J21" t="n">
         <v>7</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
         <v>6</v>
       </c>
-      <c r="K21" t="n">
-        <v>8</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7</v>
-      </c>
       <c r="M21" t="n">
-        <v>110.41</v>
+        <v>108.82</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0200&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL403354</t>
+          <t>CHEMBL379868</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4cccnc4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cnc5ccccc5c4)c3)cc12</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4cccnc4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cnc5ccccc5c4)c3)cc12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,17 +1935,17 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>463.61</v>
+        <v>409.49</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
+        <v>5</v>
+      </c>
+      <c r="J22" t="n">
         <v>6</v>
       </c>
-      <c r="J22" t="n">
-        <v>8</v>
-      </c>
       <c r="K22" t="n">
         <v>5</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>63.59</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3F290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C19A0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL389468</t>
+          <t>CHEMBL252056</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(-c5ccccc5)c4)c3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nccs4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(-c5ccccc5)c4)c3)cc12</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4nccs4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,16 +2003,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>434.54</v>
+        <v>469.64</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K23" t="n">
         <v>5</v>
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>76.81999999999999</v>
+        <v>63.59</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3E5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1A10&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL381610</t>
+          <t>CHEMBL375486</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccnc(NCc3ccccc3)c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cn1cccc1-c1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4ccccc4)c3)cc12</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(/C=C/c2ccnc(NCc3ccccc3)c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cn1cccc1-c1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4ccccc4)c3)cc12</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,16 +2071,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>475.6</v>
+        <v>424.51</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
         <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -2089,7 +2089,7 @@
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>88.84999999999999</v>
+        <v>94.64</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3C270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2260&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL573096</t>
+          <t>CHEMBL208199</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2c[nH]c4ccccc24)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2c[nH]c4ccccc24)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>513.6</v>
+        <v>344.42</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>108.82</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D0E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C37D0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL375486</t>
+          <t>CHEMBL388310</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cn1cccc1-c1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4ccccc4)c3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Cn1cccc1-c1n[nH]c2cnc(-c3cncc(OC[C@@H](N)Cc4ccccc4)c3)cc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCC5CCNCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>424.51</v>
+        <v>485.63</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>94.64</v>
+        <v>98.08</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3DAF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0890&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL208199</t>
+          <t>CHEMBL210544</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccccc4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccncc2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccccc4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>344.42</v>
+        <v>470.58</v>
       </c>
       <c r="H27" t="n">
         <v>2</v>
@@ -2284,13 +2284,13 @@
         <v>4</v>
       </c>
       <c r="J27" t="n">
+        <v>7</v>
+      </c>
+      <c r="K27" t="n">
         <v>6</v>
       </c>
-      <c r="K27" t="n">
-        <v>4</v>
-      </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
         <v>76.81999999999999</v>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1AF0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL210544</t>
+          <t>CHEMBL415220</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccccc4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCN5CCOCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3cnc(-c4ccccc4)cc3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>Cc1n[nH]c2ccc(-c3cncc(OC[C@@H](N)Cc4cccc(OCCN5CCOCC5)c4)c3)cc12</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>470.58</v>
+        <v>487.6</v>
       </c>
       <c r="H28" t="n">
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>76.81999999999999</v>
+        <v>98.52</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3C510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1C40&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL429703</t>
+          <t>CHEMBL595708</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccco3)cc12</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc(C3CCN(Cc4ccc(-c5nc6ncccc6cc5-c5ccccc5)cc4)CC3)n[nH]2)cc1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccco3)cc12</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>521.67</v>
+        <v>424.5</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>57.7</v>
+        <v>89.95999999999999</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C2420&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL595708</t>
+          <t>CHEMBL573326</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccco3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccco2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3ccco3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccco2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2475,14 +2475,14 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>424.5</v>
+        <v>464.53</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
         <v>5</v>
@@ -2491,13 +2491,13 @@
         <v>7</v>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>89.95999999999999</v>
+        <v>106.17</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3FAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C23B0&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL573326</t>
+          <t>CHEMBL210954</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccco2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccco1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccco2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccco1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>464.53</v>
+        <v>520.63</v>
       </c>
       <c r="H31" t="n">
         <v>3</v>
@@ -2556,7 +2556,7 @@
         <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K31" t="n">
         <v>6</v>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D8C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1700&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL210954</t>
+          <t>CHEMBL209826</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccco1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>CC(C)(Cc1cccs1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccco1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>CC(C)(Cc1cccs1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,13 +2615,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>520.63</v>
+        <v>536.7</v>
       </c>
       <c r="H32" t="n">
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J32" t="n">
         <v>9</v>
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
       <c r="M32" t="n">
-        <v>106.17</v>
+        <v>93.03</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D7E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0040&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL209826</t>
+          <t>CHEMBL572670</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1cccs1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccc[nH]4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1cccs1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccc[nH]4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>536.7</v>
+        <v>448.53</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K33" t="n">
         <v>6</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M33" t="n">
-        <v>93.03</v>
+        <v>108.4</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3D380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0B30&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL572670</t>
+          <t>CHEMBL210940</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccc[nH]4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1cc[nH]c1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4ccc[nH]4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1cc[nH]c1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>448.53</v>
+        <v>519.65</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
@@ -2760,16 +2760,16 @@
         <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
         <v>6</v>
       </c>
       <c r="L34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M34" t="n">
-        <v>108.4</v>
+        <v>108.82</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F3C5F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C13F0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL210940</t>
+          <t>CHEMBL576733</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1cc[nH]c1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4cccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1cc[nH]c1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4cccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>519.65</v>
+        <v>465.58</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K35" t="n">
         <v>6</v>
       </c>
       <c r="L35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M35" t="n">
-        <v>108.82</v>
+        <v>92.61</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BBFD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1FC0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL576733</t>
+          <t>CHEMBL576348</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4cccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3[nH]nc(-c4cccs4)c3c2)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,10 +2887,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>465.58</v>
+        <v>463.54</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
@@ -2902,10 +2902,10 @@
         <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
-        <v>92.61</v>
+        <v>108.82</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDBB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0BA0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL576348</t>
+          <t>CHEMBL377603</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ccc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,7 +2955,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>463.54</v>
+        <v>519.65</v>
       </c>
       <c r="H37" t="n">
         <v>4</v>
@@ -2964,7 +2964,7 @@
         <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K37" t="n">
         <v>6</v>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BD91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0900&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL377603</t>
+          <t>CHEMBL577379</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,16 +3023,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>519.65</v>
+        <v>474.56</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
         <v>6</v>
@@ -3041,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>108.82</v>
+        <v>93.03</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BD9930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C03C0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL577379</t>
+          <t>CHEMBL210209</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ncc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1ncc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,16 +3091,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>474.56</v>
+        <v>520.64</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K39" t="n">
         <v>6</v>
@@ -3109,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>93.03</v>
+        <v>121.71</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDB4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0660&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL210034</t>
+          <t>CHEMBL594310</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccccc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ncccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccccc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ncccc45)cnc3-c3ccoc3)cc12</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>530.67</v>
+        <v>464.53</v>
       </c>
       <c r="H40" t="n">
         <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K40" t="n">
         <v>6</v>
       </c>
       <c r="L40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M40" t="n">
-        <v>93.03</v>
+        <v>118.64</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDBD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0820&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL579053</t>
+          <t>CHEMBL573334</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ncc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccn2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ncc[nH]2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccn2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,10 +3227,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>464.53</v>
+        <v>475.55</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
         <v>5</v>
@@ -3245,7 +3245,7 @@
         <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>121.71</v>
+        <v>105.92</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C09E0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL210209</t>
+          <t>CHEMBL211774</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ncc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>CC(C)(Cc1ccccn1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ncc[nH]1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>CC(C)(Cc1ccccn1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,10 +3295,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>520.64</v>
+        <v>531.66</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
         <v>5</v>
@@ -3313,7 +3313,7 @@
         <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>121.71</v>
+        <v>105.92</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BD9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C0F20&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL594310</t>
+          <t>CHEMBL576386</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ncccc45)cnc3-c3ccoc3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccnc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4c[nH]c5ncccc45)cnc3-c3ccoc3)cc12</t>
+          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2cccnc2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,13 +3363,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>464.53</v>
+        <v>475.55</v>
       </c>
       <c r="H43" t="n">
         <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
         <v>7</v>
@@ -3378,10 +3378,10 @@
         <v>6</v>
       </c>
       <c r="L43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>118.64</v>
+        <v>105.92</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BD9700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1310&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL573334</t>
+          <t>CHEMBL211690</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccn2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1cccnc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N[C@H](COc1cncc(-c2ccc3c(c2)C(c2ccccn2)C(=O)N3)c1)Cc1c[nH]c2ccccc12</t>
+          <t>CC(C)(Cc1cccnc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>475.55</v>
+        <v>531.66</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
@@ -3440,7 +3440,7 @@
         <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K44" t="n">
         <v>6</v>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BD9070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C14D0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL211774</t>
+          <t>CHEMBL574289</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccccn1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-n5cnnn5)ccc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1ccccn1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>O=c1[nH]c2ccccc2n1C1CCN(Cc2ccc(-c3nc4cc(-n5cnnn5)ccc4nc3-c3ccccc3)cc2)CC1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>531.66</v>
+        <v>579.67</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M45" t="n">
-        <v>105.92</v>
+        <v>110.41</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BD97E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1850&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL211690</t>
+          <t>CHEMBL259982</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1cccnc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC(C)(Cc1cccnc1)C1C(=O)Nc2ccc(-c3cncc(OC[C@@H](N)Cc4c[nH]c5ccccc45)c3)cc21</t>
+          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>531.66</v>
+        <v>522.66</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
+        <v>7</v>
+      </c>
+      <c r="L46" t="n">
         <v>6</v>
       </c>
-      <c r="L46" t="n">
-        <v>5</v>
-      </c>
       <c r="M46" t="n">
-        <v>105.92</v>
+        <v>70.59</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C1B60&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL259982</t>
+          <t>CHEMBL252261</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>c1ccc(-c2cc3cccnc3nc2-c2ccc(CN3CCC(c4cc(-c5ccccn5)[nH]n4)CC3)cc2)cc1</t>
+          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>522.66</v>
+        <v>529.67</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
+        <v>9</v>
+      </c>
+      <c r="K47" t="n">
         <v>6</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7</v>
       </c>
       <c r="L47" t="n">
         <v>6</v>
       </c>
       <c r="M47" t="n">
-        <v>70.59</v>
+        <v>92.27</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977C11C0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL252261</t>
+          <t>CHEMBL594748</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3cccs3)cc12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CSc1ncc2cc(-c3ccccc3)c(-c3ccc(CNCCc4n[nH]c(-c5ccccc5)n4)cc3)nc2n1</t>
+          <t>Cc1n[nH]c2ccc(-c3cc(OC[C@@H](N)Cc4ccccc4)cnc3-c3cccs3)cc12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>529.67</v>
+        <v>440.57</v>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="n">
+        <v>4</v>
+      </c>
+      <c r="J48" t="n">
         <v>7</v>
       </c>
-      <c r="J48" t="n">
-        <v>9</v>
-      </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M48" t="n">
-        <v>92.27</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BC3C0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BDBCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284977BD3F0&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BE1EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FAC00&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C08120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F8580&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C08DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F9850&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C09620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F8D60&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0A260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F8350&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C08890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F8190&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0B5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FA960&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0AF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F9150&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C08AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F89E0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C09C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F93F0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C089E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F8270&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C08820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FB290&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0BA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F80B0&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0AB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F85F0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FA650&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0BD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FBC30&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C09230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FACE0&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -5024,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C090E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F87B0&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5092,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0B290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F9930&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5160,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0A3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988F8A50&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5228,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C08660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FA8F0&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5296,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0B990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988FB300&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5364,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0AD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498906260&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5432,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3C0B060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498905E70&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5500,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFF370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498907DF0&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5568,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFF760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284989075A0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5636,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFFD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498905D20&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5704,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFFAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498907C30&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5772,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFFBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284989071B0&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5840,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFFCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498905D90&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5908,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFFD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498905700&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5976,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFFB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498907610&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6044,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFF1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498906F10&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6112,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F3BFF990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498905AF0&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6180,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F29CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884270&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6248,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F29A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498885070&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6316,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4F29D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884E40&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6384,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFEAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498885150&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6452,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFEDC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988844A0&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6520,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988850E0&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6588,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884C80&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6656,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884190&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6724,7 +6724,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884F20&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6792,7 +6792,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFDCB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498885310&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6860,7 +6860,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884B30&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -6928,7 +6928,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498885230&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -6996,7 +6996,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884040&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7064,7 +7064,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884C10&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7132,7 +7132,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000028498884740&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7200,7 +7200,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFDA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000284988852A0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7268,7 +7268,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFD930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D5B0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7336,7 +7336,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887EB90&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7404,7 +7404,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D0E0&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7472,7 +7472,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFEFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887DD20&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7540,7 +7540,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887FED0&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7608,7 +7608,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFDA80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887EC00&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7676,7 +7676,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F1B0&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7744,7 +7744,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887ED50&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F3E0&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFDD20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887E650&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFFC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D3F0&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8120,7 +8120,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFDFC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D690&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFF290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887CEB0&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFDBD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887FBC0&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8402,7 +8402,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D310&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8496,7 +8496,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFFE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887DA10&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFFD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887E810&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFEE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F920&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFEC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887E880&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFEEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D8C0&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8966,7 +8966,7 @@
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFE9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887D2A0&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000243F4EFFA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002849887F840&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
